--- a/results/multilabel_powerset/41465ps/automl.xlsx
+++ b/results/multilabel_powerset/41465ps/automl.xlsx
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.389 (0.313 Â± 0.038)</t>
+          <t>0.389 (0.314 Â± 0.043)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:12:43 (01:21:38 Â± 00:46:22)</t>
+          <t>00:10:02 (00:11:05 Â± 00:00:53)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multilabel_powerset/41465ps/automl.xlsx
+++ b/results/multilabel_powerset/41465ps/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.327 (0.321 Â± 0.005)</t>
+          <t>0.327 (0.321 ± 0.005)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:47 (00:05:32 Â± 00:00:48)</t>
+          <t>00:04:47 (00:05:32 ± 00:00:48)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.379 (0.304 Â± 0.039)</t>
+          <t>0.379 (0.304 ± 0.039)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:33 (00:00:50 Â± 00:00:21)</t>
+          <t>00:00:33 (00:00:50 ± 00:00:21)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.351 (0.258 Â± 0.037)</t>
+          <t>0.351 (0.258 ± 0.037)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:26 (00:00:35 Â± 00:00:08)</t>
+          <t>00:00:26 (00:00:35 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.349 (0.275 Â± 0.043)</t>
+          <t>0.349 (0.275 ± 0.043)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:13 Â± 00:00:04)</t>
+          <t>00:05:05 (00:05:13 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.363 (0.303 Â± 0.032)</t>
+          <t>0.363 (0.303 ± 0.032)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:03 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:03 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.369 (0.316 Â± 0.040)</t>
+          <t>0.369 (0.316 ± 0.040)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:59 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -699,17 +699,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.281 (0.166 Â± 0.070)</t>
+          <t>0.281 (0.166 ± 0.070)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.294 (0.274 Â± 0.016)</t>
+          <t>0.294 (0.274 ± 0.016)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:01:12 (00:02:13 Â± 00:00:36)</t>
+          <t>00:01:12 (00:02:13 ± 00:00:36)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.094 (0.045 Â± 0.023)</t>
+          <t>0.094 (0.045 ± 0.023)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:01)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.344 (0.264 Â± 0.043)</t>
+          <t>0.344 (0.264 ± 0.043)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:01:48 (00:01:57 Â± 00:00:04)</t>
+          <t>00:01:48 (00:01:57 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -827,17 +827,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.358 (0.303 Â± 0.032)</t>
+          <t>0.358 (0.303 ± 0.032)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:46 (00:04:11 Â± 00:01:23)</t>
+          <t>00:00:46 (00:04:11 ± 00:01:23)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.389 (0.314 Â± 0.043)</t>
+          <t>0.389 (0.314 ± 0.043)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:10:02 (00:11:05 Â± 00:00:53)</t>
+          <t>00:10:02 (00:11:05 ± 00:00:53)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.385 (0.305 Â± 0.033)</t>
+          <t>0.385 (0.305 ± 0.033)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:26 Â± 00:00:17)</t>
+          <t>00:05:01 (00:05:26 ± 00:00:17)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
